--- a/similarities/split_global/harmonic_similarity_timestamps_262.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_262.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_12</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:38.300000', '0:02:41.560000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:05', '0:00:21.500000')]</t>
+          <t>('0:00:00.866546', '0:00:12.917702')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=158.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-12#t=5.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:56.920000', '0:01:03.560000')]</t>
+          <t>('0:01:14.879000', '0:01:27.795000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:09.910000', '0:00:14')]</t>
+          <t>('0:00:55.180000', '0:01:05.560000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=56.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=9.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:09.260000')]</t>
+          <t>('0:00:10.380000', '0:00:16.320000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
+          <t>('0:01:29.080000', '0:01:38.100000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min', 'A#:7/G#', 'D#:min/F#']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:11.440000', '0:00:17.640000')]</t>
+          <t>('0:00:20.560000', '0:00:30.380000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.740000', '0:00:26.160000')]</t>
+          <t>('0:00:08.700000', '0:00:26.220000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:04:05.420000', '0:04:23.440000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=20.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=245.42']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['A', 'E/4', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['A', 'E', 'D', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:24.760000', '0:00:34.920000')]</t>
+          <t>('0:00:30.470000', '0:00:37.280000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:07.540000', '0:00:20.160000')]</t>
+          <t>('0:00:47.015260', '0:01:08.818798')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=30.47</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=7.54']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=47.01526</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>isophonics_198</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F']]</t>
+          <t>['D:min', 'A', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:11.210000', '0:00:14.450000')]</t>
+          <t>('0:00:18.965464', '0:00:23.342426')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:04:13.840000', '0:04:19.880000')]</t>
+          <t>('0:00:13.480000', '0:00:20.960000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>isophonics_112</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:50.130000', '0:01:05.020000')]</t>
+          <t>('0:00:16.040000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:08.040000', '0:01:24.540000')]</t>
+          <t>('0:00:00.421247', '0:00:04.824512')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=50.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_185</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G', 'D']]</t>
+          <t>['A', 'E:min', 'F#']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>['D:maj/F#', 'A:min/E', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:07.605000', '0:00:14.292000')]</t>
+          <t>('0:00:33.686916', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:33.181700', '0:01:39.497528')]</t>
+          <t>('0:01:03.140000', '0:01:05.620000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=7.605']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-185#t=33.686916</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=93.1817']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=63.14</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>isophonics_225</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C:maj', 'C:7/A#', 'C#:maj/G#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min'], ['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['E', 'E:7', 'F']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:01', '0:00:05.360000'), ('0:02:04.300000', '0:02:09.240000')]</t>
+          <t>('0:00:50.980000', '0:00:58.900000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:12.600000', '0:00:17.860000'), ('0:00:02.600000', '0:00:04.500000')]</t>
+          <t>('0:00:53.673000', '0:01:00.522000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=50.98</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=53.673</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_165</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>jaah_63</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['F/A', 'C:7/G', 'F/A']]</t>
+          <t>['F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Db', 'Ab:7', 'Db']]</t>
+          <t>['C:7', 'F:min', 'G:dim7', 'F:min', 'G:dim7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:29.360000'), ('0:04:41.620000', '0:04:43.600000')]</t>
+          <t>('0:00:17.920000', '0:00:24.660000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:15.880000', '0:00:17.370000'), ('0:01:21.770000', '0:01:27.560000')]</t>
+          <t>('0:01:19.460000', '0:01:29.810000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=281.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=17.92</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=15.88', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=81.77']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-63#t=79.46</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C#:maj/G#', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:18.640000', '0:00:28.900000')]</t>
+          <t>('0:00:32.200000', '0:00:36.200000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:40.460000', '0:00:43.620000')]</t>
+          <t>('0:00:36.600000', '0:00:39')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=18.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.46']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=36.6</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:36.400000', '0:00:55.360000')]</t>
+          <t>('0:00:01.440000', '0:00:06.660000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:01.240000', '0:00:09.940000')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=36.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=1.24']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:min', 'C', 'F:min', 'G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:min', 'C:maj', 'F:min', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:12.960000', '0:00:17.700000'), ('0:00:00.780000', '0:00:05.260000'), ('0:02:03.220000', '0:02:06.880000')]</t>
+          <t>('0:00:03.400000', '0:00:09.080000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:31.980000', '0:00:34.580000'), ('0:00:08.240000', '0:00:13.460000'), ('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:15.800000', '0:00:20.480000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=12.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=3.4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=31.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=15.8</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:maj']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G']]</t>
+          <t>['A#:maj', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:39.976000', '0:00:44.640000')]</t>
+          <t>('0:01:11.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:40.450000', '0:00:45.420000')]</t>
+          <t>('0:01:02.280000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=39.976']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=71.64</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=40.45']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=62.28</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
